--- a/kerntabellen/gemeente_vervoerregio.xlsx
+++ b/kerntabellen/gemeente_vervoerregio.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A259033-43B4-422E-8DEA-2D4CA635F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -981,7 +995,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,9 +1025,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1351,4535 +1364,4236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="C301" sqref="C1:C301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>41002</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>41011</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <f>IF(D3=D2,C2,C2+1)</f>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>41024</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C67" si="0">IF(D4=D3,C3,C3+1)</f>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>41034</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>41048</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>41082</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>42003</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>42006</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>42008</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>42011</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>42026</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11001</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>11002</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>11004</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>11005</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>11007</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>11008</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>11009</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>11013</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>11016</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>11018</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>11021</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>11022</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>11023</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>11024</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>11025</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>11029</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>11030</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>11035</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" si="0"/>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>11037</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>11038</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>11039</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>11040</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>11044</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="0"/>
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>11050</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="0"/>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>11052</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="1">
-        <f t="shared" si="0"/>
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>11053</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="0"/>
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>11054</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="0"/>
+      <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>11055</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" si="0"/>
+      <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>11056</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" si="0"/>
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>11057</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="0"/>
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>12021</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="1">
-        <f t="shared" si="0"/>
+      <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>46003</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" si="0"/>
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>31003</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1">
-        <f t="shared" si="0"/>
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>31004</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1">
-        <f t="shared" si="0"/>
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>31005</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="1">
-        <f t="shared" si="0"/>
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>31006</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="1">
-        <f t="shared" si="0"/>
+      <c r="C48">
         <v>3</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>31012</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="1">
-        <f t="shared" si="0"/>
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>31022</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="1">
-        <f t="shared" si="0"/>
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>31040</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="1">
-        <f t="shared" si="0"/>
+      <c r="C51">
         <v>3</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>31042</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="1">
-        <f t="shared" si="0"/>
+      <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>31043</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="1">
-        <f t="shared" si="0"/>
+      <c r="C53">
         <v>3</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>42010</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" si="0"/>
+      <c r="C54">
         <v>4</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>42025</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="1">
-        <f t="shared" si="0"/>
+      <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>43002</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1">
-        <f t="shared" si="0"/>
+      <c r="C56">
         <v>4</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>43005</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1">
-        <f t="shared" si="0"/>
+      <c r="C57">
         <v>4</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>43007</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="1">
-        <f t="shared" si="0"/>
+      <c r="C58">
         <v>4</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>43010</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="1">
-        <f t="shared" si="0"/>
+      <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>43014</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="1">
-        <f t="shared" si="0"/>
+      <c r="C60">
         <v>4</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>43018</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="1">
-        <f t="shared" si="0"/>
+      <c r="C61">
         <v>4</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>44012</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="1">
-        <f t="shared" si="0"/>
+      <c r="C62">
         <v>4</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>44013</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="1">
-        <f t="shared" si="0"/>
+      <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>44019</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="1">
-        <f t="shared" si="0"/>
+      <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>44020</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="1">
-        <f t="shared" si="0"/>
+      <c r="C65">
         <v>4</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>44021</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="1">
-        <f t="shared" si="0"/>
+      <c r="C66">
         <v>4</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>44034</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="1">
-        <f t="shared" si="0"/>
+      <c r="C67">
         <v>4</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>44040</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="1">
-        <f t="shared" ref="C68:C131" si="1">IF(D68=D67,C67,C67+1)</f>
+      <c r="C68">
         <v>4</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>44043</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="1">
-        <f t="shared" si="1"/>
+      <c r="C69">
         <v>4</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>44048</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="1">
-        <f t="shared" si="1"/>
+      <c r="C70">
         <v>4</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>44064</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="1">
-        <f t="shared" si="1"/>
+      <c r="C71">
         <v>4</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>44073</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="1">
-        <f t="shared" si="1"/>
+      <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>44081</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="1">
-        <f t="shared" si="1"/>
+      <c r="C73">
         <v>4</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>44083</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="1">
-        <f t="shared" si="1"/>
+      <c r="C74">
         <v>4</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>44084</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="1">
-        <f t="shared" si="1"/>
+      <c r="C75">
         <v>4</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>44085</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="1">
-        <f t="shared" si="1"/>
+      <c r="C76">
         <v>4</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>12026</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="1">
-        <f t="shared" si="1"/>
+      <c r="C77">
         <v>5</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>13001</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="1">
-        <f t="shared" si="1"/>
+      <c r="C78">
         <v>5</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>13002</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="1">
-        <f t="shared" si="1"/>
+      <c r="C79">
         <v>5</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>13003</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="1">
-        <f t="shared" si="1"/>
+      <c r="C80">
         <v>5</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>13004</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="1">
-        <f t="shared" si="1"/>
+      <c r="C81">
         <v>5</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>13006</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="1">
-        <f t="shared" si="1"/>
+      <c r="C82">
         <v>5</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>13008</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="1">
-        <f t="shared" si="1"/>
+      <c r="C83">
         <v>5</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>13010</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="1">
-        <f t="shared" si="1"/>
+      <c r="C84">
         <v>5</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>13011</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="1">
-        <f t="shared" si="1"/>
+      <c r="C85">
         <v>5</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>13012</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="1">
-        <f t="shared" si="1"/>
+      <c r="C86">
         <v>5</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>13013</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="1">
-        <f t="shared" si="1"/>
+      <c r="C87">
         <v>5</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>13014</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="1">
-        <f t="shared" si="1"/>
+      <c r="C88">
         <v>5</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>13016</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="1">
-        <f t="shared" si="1"/>
+      <c r="C89">
         <v>5</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>13017</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="1">
-        <f t="shared" si="1"/>
+      <c r="C90">
         <v>5</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>13019</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="1">
-        <f t="shared" si="1"/>
+      <c r="C91">
         <v>5</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>13021</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="1">
-        <f t="shared" si="1"/>
+      <c r="C92">
         <v>5</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>13023</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="1">
-        <f t="shared" si="1"/>
+      <c r="C93">
         <v>5</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>13025</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="1">
-        <f t="shared" si="1"/>
+      <c r="C94">
         <v>5</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>13029</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="1">
-        <f t="shared" si="1"/>
+      <c r="C95">
         <v>5</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>13031</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="1">
-        <f t="shared" si="1"/>
+      <c r="C96">
         <v>5</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>13035</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="1">
-        <f t="shared" si="1"/>
+      <c r="C97">
         <v>5</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>13036</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="1">
-        <f t="shared" si="1"/>
+      <c r="C98">
         <v>5</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>13037</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="1">
-        <f t="shared" si="1"/>
+      <c r="C99">
         <v>5</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>13040</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="1">
-        <f t="shared" si="1"/>
+      <c r="C100">
         <v>5</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>13044</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="1">
-        <f t="shared" si="1"/>
+      <c r="C101">
         <v>5</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>13046</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="1">
-        <f t="shared" si="1"/>
+      <c r="C102">
         <v>5</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>13049</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="1">
-        <f t="shared" si="1"/>
+      <c r="C103">
         <v>5</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>13053</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="1">
-        <f t="shared" si="1"/>
+      <c r="C104">
         <v>5</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>34002</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="1">
-        <f t="shared" si="1"/>
+      <c r="C105">
         <v>6</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>34003</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="1">
-        <f t="shared" si="1"/>
+      <c r="C106">
         <v>6</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>34009</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="1">
-        <f t="shared" si="1"/>
+      <c r="C107">
         <v>6</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>34013</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="1">
-        <f t="shared" si="1"/>
+      <c r="C108">
         <v>6</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>34022</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="1">
-        <f t="shared" si="1"/>
+      <c r="C109">
         <v>6</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>34023</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="1">
-        <f t="shared" si="1"/>
+      <c r="C110">
         <v>6</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>34025</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="1">
-        <f t="shared" si="1"/>
+      <c r="C111">
         <v>6</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>34027</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="1">
-        <f t="shared" si="1"/>
+      <c r="C112">
         <v>6</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>34040</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="1">
-        <f t="shared" si="1"/>
+      <c r="C113">
         <v>6</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>34041</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="1">
-        <f t="shared" si="1"/>
+      <c r="C114">
         <v>6</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>34042</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="1">
-        <f t="shared" si="1"/>
+      <c r="C115">
         <v>6</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>34043</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="1">
-        <f t="shared" si="1"/>
+      <c r="C116">
         <v>6</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>33029</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="1">
-        <f t="shared" si="1"/>
+      <c r="C117">
         <v>6</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>23062</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="1">
-        <f t="shared" si="1"/>
+      <c r="C118">
         <v>7</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>24001</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="1">
-        <f t="shared" si="1"/>
+      <c r="C119">
         <v>7</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>24007</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="1">
-        <f t="shared" si="1"/>
+      <c r="C120">
         <v>7</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>24008</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="1">
-        <f t="shared" si="1"/>
+      <c r="C121">
         <v>7</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>24009</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="1">
-        <f t="shared" si="1"/>
+      <c r="C122">
         <v>7</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>24011</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="1">
-        <f t="shared" si="1"/>
+      <c r="C123">
         <v>7</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>24016</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="1">
-        <f t="shared" si="1"/>
+      <c r="C124">
         <v>7</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>24020</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="1">
-        <f t="shared" si="1"/>
+      <c r="C125">
         <v>7</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>24028</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="1">
-        <f t="shared" si="1"/>
+      <c r="C126">
         <v>7</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>24033</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="1">
-        <f t="shared" si="1"/>
+      <c r="C127">
         <v>7</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>24038</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="1">
-        <f t="shared" si="1"/>
+      <c r="C128">
         <v>7</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>24041</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="1">
-        <f t="shared" si="1"/>
+      <c r="C129">
         <v>7</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>24043</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="1">
-        <f t="shared" si="1"/>
+      <c r="C130">
         <v>7</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>24045</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>132</v>
       </c>
-      <c r="C131" s="1">
-        <f t="shared" si="1"/>
+      <c r="C131">
         <v>7</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>24048</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="1">
-        <f t="shared" ref="C132:C195" si="2">IF(D132=D131,C131,C131+1)</f>
+      <c r="C132">
         <v>7</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>24054</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="1">
-        <f t="shared" si="2"/>
+      <c r="C133">
         <v>7</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>24055</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="1">
-        <f t="shared" si="2"/>
+      <c r="C134">
         <v>7</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>24059</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="1">
-        <f t="shared" si="2"/>
+      <c r="C135">
         <v>7</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>24062</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>119</v>
       </c>
-      <c r="C136" s="1">
-        <f t="shared" si="2"/>
+      <c r="C136">
         <v>7</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>24066</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="1">
-        <f t="shared" si="2"/>
+      <c r="C137">
         <v>7</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>24086</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>138</v>
       </c>
-      <c r="C138" s="1">
-        <f t="shared" si="2"/>
+      <c r="C138">
         <v>7</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>24094</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="1">
-        <f t="shared" si="2"/>
+      <c r="C139">
         <v>7</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>24104</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="1">
-        <f t="shared" si="2"/>
+      <c r="C140">
         <v>7</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>24107</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="1">
-        <f t="shared" si="2"/>
+      <c r="C141">
         <v>7</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>24109</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="1">
-        <f t="shared" si="2"/>
+      <c r="C142">
         <v>7</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>24130</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="1">
-        <f t="shared" si="2"/>
+      <c r="C143">
         <v>7</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>24133</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="1">
-        <f t="shared" si="2"/>
+      <c r="C144">
         <v>7</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>24134</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="1">
-        <f t="shared" si="2"/>
+      <c r="C145">
         <v>7</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>24135</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="1">
-        <f t="shared" si="2"/>
+      <c r="C146">
         <v>7</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>24137</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="1">
-        <f t="shared" si="2"/>
+      <c r="C147">
         <v>7</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>23033</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="1">
-        <f t="shared" si="2"/>
+      <c r="C148">
         <v>7</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>71002</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="1">
-        <f t="shared" si="2"/>
+      <c r="C149">
         <v>8</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>71004</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="1">
-        <f t="shared" si="2"/>
+      <c r="C150">
         <v>8</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>71011</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="1">
-        <f t="shared" si="2"/>
+      <c r="C151">
         <v>8</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>71016</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>152</v>
       </c>
-      <c r="C152" s="1">
-        <f t="shared" si="2"/>
+      <c r="C152">
         <v>8</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>71017</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>153</v>
       </c>
-      <c r="C153" s="1">
-        <f t="shared" si="2"/>
+      <c r="C153">
         <v>8</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>71020</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>154</v>
       </c>
-      <c r="C154" s="1">
-        <f t="shared" si="2"/>
+      <c r="C154">
         <v>8</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>71022</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>155</v>
       </c>
-      <c r="C155" s="1">
-        <f t="shared" si="2"/>
+      <c r="C155">
         <v>8</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>71024</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="1">
-        <f t="shared" si="2"/>
+      <c r="C156">
         <v>8</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>71034</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="1">
-        <f t="shared" si="2"/>
+      <c r="C157">
         <v>8</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>71037</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="1">
-        <f t="shared" si="2"/>
+      <c r="C158">
         <v>8</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>71045</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="1">
-        <f t="shared" si="2"/>
+      <c r="C159">
         <v>8</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>71053</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="1">
-        <f t="shared" si="2"/>
+      <c r="C160">
         <v>8</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>71057</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>161</v>
       </c>
-      <c r="C161" s="1">
-        <f t="shared" si="2"/>
+      <c r="C161">
         <v>8</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>71066</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>162</v>
       </c>
-      <c r="C162" s="1">
-        <f t="shared" si="2"/>
+      <c r="C162">
         <v>8</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>71067</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>163</v>
       </c>
-      <c r="C163" s="1">
-        <f t="shared" si="2"/>
+      <c r="C163">
         <v>8</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>71069</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>164</v>
       </c>
-      <c r="C164" s="1">
-        <f t="shared" si="2"/>
+      <c r="C164">
         <v>8</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>71070</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="1">
-        <f t="shared" si="2"/>
+      <c r="C165">
         <v>8</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>72003</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>166</v>
       </c>
-      <c r="C166" s="1">
-        <f t="shared" si="2"/>
+      <c r="C166">
         <v>8</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>72004</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>167</v>
       </c>
-      <c r="C167" s="1">
-        <f t="shared" si="2"/>
+      <c r="C167">
         <v>8</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>72018</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" t="s">
         <v>168</v>
       </c>
-      <c r="C168" s="1">
-        <f t="shared" si="2"/>
+      <c r="C168">
         <v>8</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>72020</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>169</v>
       </c>
-      <c r="C169" s="1">
-        <f t="shared" si="2"/>
+      <c r="C169">
         <v>8</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>72021</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s">
         <v>170</v>
       </c>
-      <c r="C170" s="1">
-        <f t="shared" si="2"/>
+      <c r="C170">
         <v>8</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>72030</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>171</v>
       </c>
-      <c r="C171" s="1">
-        <f t="shared" si="2"/>
+      <c r="C171">
         <v>8</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>72037</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>172</v>
       </c>
-      <c r="C172" s="1">
-        <f t="shared" si="2"/>
+      <c r="C172">
         <v>8</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>72038</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>173</v>
       </c>
-      <c r="C173" s="1">
-        <f t="shared" si="2"/>
+      <c r="C173">
         <v>8</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>72039</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>174</v>
       </c>
-      <c r="C174" s="1">
-        <f t="shared" si="2"/>
+      <c r="C174">
         <v>8</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>72041</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>175</v>
       </c>
-      <c r="C175" s="1">
-        <f t="shared" si="2"/>
+      <c r="C175">
         <v>8</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>72042</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>176</v>
       </c>
-      <c r="C176" s="1">
-        <f t="shared" si="2"/>
+      <c r="C176">
         <v>8</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>72043</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>177</v>
       </c>
-      <c r="C177" s="1">
-        <f t="shared" si="2"/>
+      <c r="C177">
         <v>8</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>73001</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>178</v>
       </c>
-      <c r="C178" s="1">
-        <f t="shared" si="2"/>
+      <c r="C178">
         <v>8</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>73006</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="1">
-        <f t="shared" si="2"/>
+      <c r="C179">
         <v>8</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>73009</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>180</v>
       </c>
-      <c r="C180" s="1">
-        <f t="shared" si="2"/>
+      <c r="C180">
         <v>8</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>73022</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="1">
-        <f t="shared" si="2"/>
+      <c r="C181">
         <v>8</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>73028</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>182</v>
       </c>
-      <c r="C182" s="1">
-        <f t="shared" si="2"/>
+      <c r="C182">
         <v>8</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>73032</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>183</v>
       </c>
-      <c r="C183" s="1">
-        <f t="shared" si="2"/>
+      <c r="C183">
         <v>8</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>73040</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>184</v>
       </c>
-      <c r="C184" s="1">
-        <f t="shared" si="2"/>
+      <c r="C184">
         <v>8</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>73042</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>185</v>
       </c>
-      <c r="C185" s="1">
-        <f t="shared" si="2"/>
+      <c r="C185">
         <v>8</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>73066</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>186</v>
       </c>
-      <c r="C186" s="1">
-        <f t="shared" si="2"/>
+      <c r="C186">
         <v>8</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>73083</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>187</v>
       </c>
-      <c r="C187" s="1">
-        <f t="shared" si="2"/>
+      <c r="C187">
         <v>8</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>73098</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" t="s">
         <v>188</v>
       </c>
-      <c r="C188" s="1">
-        <f t="shared" si="2"/>
+      <c r="C188">
         <v>8</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>73107</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>189</v>
       </c>
-      <c r="C189" s="1">
-        <f t="shared" si="2"/>
+      <c r="C189">
         <v>8</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>73109</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>190</v>
       </c>
-      <c r="C190" s="1">
-        <f t="shared" si="2"/>
+      <c r="C190">
         <v>8</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>12002</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>191</v>
       </c>
-      <c r="C191" s="1">
-        <f t="shared" si="2"/>
+      <c r="C191">
         <v>9</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>12005</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>193</v>
       </c>
-      <c r="C192" s="1">
-        <f t="shared" si="2"/>
+      <c r="C192">
         <v>9</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>12007</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>194</v>
       </c>
-      <c r="C193" s="1">
-        <f t="shared" si="2"/>
+      <c r="C193">
         <v>9</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="1">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>12009</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="1">
-        <f t="shared" si="2"/>
+      <c r="C194">
         <v>9</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>12014</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>196</v>
       </c>
-      <c r="C195" s="1">
-        <f t="shared" si="2"/>
+      <c r="C195">
         <v>9</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>12025</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="1">
-        <f t="shared" ref="C196:C259" si="3">IF(D196=D195,C195,C195+1)</f>
+      <c r="C196">
         <v>9</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>12029</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>197</v>
       </c>
-      <c r="C197" s="1">
-        <f t="shared" si="3"/>
+      <c r="C197">
         <v>9</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="1">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>12035</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>198</v>
       </c>
-      <c r="C198" s="1">
-        <f t="shared" si="3"/>
+      <c r="C198">
         <v>9</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>12040</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>199</v>
       </c>
-      <c r="C199" s="1">
-        <f t="shared" si="3"/>
+      <c r="C199">
         <v>9</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="1">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>12041</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s">
         <v>200</v>
       </c>
-      <c r="C200" s="1">
-        <f t="shared" si="3"/>
+      <c r="C200">
         <v>9</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="1">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>23039</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>201</v>
       </c>
-      <c r="C201" s="1">
-        <f t="shared" si="3"/>
+      <c r="C201">
         <v>9</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="1">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>24014</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s">
         <v>202</v>
       </c>
-      <c r="C202" s="1">
-        <f t="shared" si="3"/>
+      <c r="C202">
         <v>9</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="1">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>35002</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s">
         <v>203</v>
       </c>
-      <c r="C203" s="1">
-        <f t="shared" si="3"/>
+      <c r="C203">
         <v>10</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" s="1">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>35005</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" t="s">
         <v>205</v>
       </c>
-      <c r="C204" s="1">
-        <f t="shared" si="3"/>
+      <c r="C204">
         <v>10</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="1">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>35006</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" t="s">
         <v>206</v>
       </c>
-      <c r="C205" s="1">
-        <f t="shared" si="3"/>
+      <c r="C205">
         <v>10</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>35011</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" t="s">
         <v>207</v>
       </c>
-      <c r="C206" s="1">
-        <f t="shared" si="3"/>
+      <c r="C206">
         <v>10</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>35013</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" t="s">
         <v>204</v>
       </c>
-      <c r="C207" s="1">
-        <f t="shared" si="3"/>
+      <c r="C207">
         <v>10</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="1">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>35014</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" t="s">
         <v>208</v>
       </c>
-      <c r="C208" s="1">
-        <f t="shared" si="3"/>
+      <c r="C208">
         <v>10</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>35029</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s">
         <v>209</v>
       </c>
-      <c r="C209" s="1">
-        <f t="shared" si="3"/>
+      <c r="C209">
         <v>10</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="1">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>38014</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" t="s">
         <v>210</v>
       </c>
-      <c r="C210" s="1">
-        <f t="shared" si="3"/>
+      <c r="C210">
         <v>10</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>38016</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s">
         <v>211</v>
       </c>
-      <c r="C211" s="1">
-        <f t="shared" si="3"/>
+      <c r="C211">
         <v>10</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>31033</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" t="s">
         <v>212</v>
       </c>
-      <c r="C212" s="1">
-        <f t="shared" si="3"/>
+      <c r="C212">
         <v>11</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>36006</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s">
         <v>214</v>
       </c>
-      <c r="C213" s="1">
-        <f t="shared" si="3"/>
+      <c r="C213">
         <v>11</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="1">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>36007</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" t="s">
         <v>215</v>
       </c>
-      <c r="C214" s="1">
-        <f t="shared" si="3"/>
+      <c r="C214">
         <v>11</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>36008</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" t="s">
         <v>216</v>
       </c>
-      <c r="C215" s="1">
-        <f t="shared" si="3"/>
+      <c r="C215">
         <v>11</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" s="1">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>36010</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" t="s">
         <v>217</v>
       </c>
-      <c r="C216" s="1">
-        <f t="shared" si="3"/>
+      <c r="C216">
         <v>11</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>36011</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" t="s">
         <v>218</v>
       </c>
-      <c r="C217" s="1">
-        <f t="shared" si="3"/>
+      <c r="C217">
         <v>11</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="1">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>36012</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" t="s">
         <v>219</v>
       </c>
-      <c r="C218" s="1">
-        <f t="shared" si="3"/>
+      <c r="C218">
         <v>11</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="1">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>36015</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="1">
-        <f t="shared" si="3"/>
+      <c r="C219">
         <v>11</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="1">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>36019</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" t="s">
         <v>220</v>
       </c>
-      <c r="C220" s="1">
-        <f t="shared" si="3"/>
+      <c r="C220">
         <v>11</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>37002</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" t="s">
         <v>221</v>
       </c>
-      <c r="C221" s="1">
-        <f t="shared" si="3"/>
+      <c r="C221">
         <v>11</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" s="1">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>37007</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" t="s">
         <v>222</v>
       </c>
-      <c r="C222" s="1">
-        <f t="shared" si="3"/>
+      <c r="C222">
         <v>11</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>37010</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" t="s">
         <v>223</v>
       </c>
-      <c r="C223" s="1">
-        <f t="shared" si="3"/>
+      <c r="C223">
         <v>11</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="1">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>37011</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" t="s">
         <v>224</v>
       </c>
-      <c r="C224" s="1">
-        <f t="shared" si="3"/>
+      <c r="C224">
         <v>11</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" s="1">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>37012</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" t="s">
         <v>225</v>
       </c>
-      <c r="C225" s="1">
-        <f t="shared" si="3"/>
+      <c r="C225">
         <v>11</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="1">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>37015</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" t="s">
         <v>226</v>
       </c>
-      <c r="C226" s="1">
-        <f t="shared" si="3"/>
+      <c r="C226">
         <v>11</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>37017</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" t="s">
         <v>227</v>
       </c>
-      <c r="C227" s="1">
-        <f t="shared" si="3"/>
+      <c r="C227">
         <v>11</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" s="1">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
         <v>37018</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" t="s">
         <v>228</v>
       </c>
-      <c r="C228" s="1">
-        <f t="shared" si="3"/>
+      <c r="C228">
         <v>11</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="1">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
         <v>37020</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" t="s">
         <v>229</v>
       </c>
-      <c r="C229" s="1">
-        <f t="shared" si="3"/>
+      <c r="C229">
         <v>11</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="1">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
         <v>41018</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" t="s">
         <v>230</v>
       </c>
-      <c r="C230" s="1">
-        <f t="shared" si="3"/>
+      <c r="C230">
         <v>12</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" s="1">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>41027</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" t="s">
         <v>231</v>
       </c>
-      <c r="C231" s="1">
-        <f t="shared" si="3"/>
+      <c r="C231">
         <v>12</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="1">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>41063</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" t="s">
         <v>232</v>
       </c>
-      <c r="C232" s="1">
-        <f t="shared" si="3"/>
+      <c r="C232">
         <v>12</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="1">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>41081</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" t="s">
         <v>233</v>
       </c>
-      <c r="C233" s="1">
-        <f t="shared" si="3"/>
+      <c r="C233">
         <v>12</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" s="1">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>44052</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" t="s">
         <v>234</v>
       </c>
-      <c r="C234" s="1">
-        <f t="shared" si="3"/>
+      <c r="C234">
         <v>12</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="1">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>45035</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" t="s">
         <v>235</v>
       </c>
-      <c r="C235" s="1">
-        <f t="shared" si="3"/>
+      <c r="C235">
         <v>12</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="1">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>45041</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" t="s">
         <v>236</v>
       </c>
-      <c r="C236" s="1">
-        <f t="shared" si="3"/>
+      <c r="C236">
         <v>12</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" s="1">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>45059</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" t="s">
         <v>237</v>
       </c>
-      <c r="C237" s="1">
-        <f t="shared" si="3"/>
+      <c r="C237">
         <v>12</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="1">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>45060</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" t="s">
         <v>238</v>
       </c>
-      <c r="C238" s="1">
-        <f t="shared" si="3"/>
+      <c r="C238">
         <v>12</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="1">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>45061</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" t="s">
         <v>239</v>
       </c>
-      <c r="C239" s="1">
-        <f t="shared" si="3"/>
+      <c r="C239">
         <v>12</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="1">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>45062</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" t="s">
         <v>240</v>
       </c>
-      <c r="C240" s="1">
-        <f t="shared" si="3"/>
+      <c r="C240">
         <v>12</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="1">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>45063</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" t="s">
         <v>241</v>
       </c>
-      <c r="C241" s="1">
-        <f t="shared" si="3"/>
+      <c r="C241">
         <v>12</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="1">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>45064</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" t="s">
         <v>242</v>
       </c>
-      <c r="C242" s="1">
-        <f t="shared" si="3"/>
+      <c r="C242">
         <v>12</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="1">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>45065</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" t="s">
         <v>243</v>
       </c>
-      <c r="C243" s="1">
-        <f t="shared" si="3"/>
+      <c r="C243">
         <v>12</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="1">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>45068</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" t="s">
         <v>244</v>
       </c>
-      <c r="C244" s="1">
-        <f t="shared" si="3"/>
+      <c r="C244">
         <v>12</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="1">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>23002</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" t="s">
         <v>245</v>
       </c>
-      <c r="C245" s="1">
-        <f t="shared" si="3"/>
+      <c r="C245">
         <v>13</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="1">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>23003</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" t="s">
         <v>246</v>
       </c>
-      <c r="C246" s="1">
-        <f t="shared" si="3"/>
+      <c r="C246">
         <v>13</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="1">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>23009</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" t="s">
         <v>247</v>
       </c>
-      <c r="C247" s="1">
-        <f t="shared" si="3"/>
+      <c r="C247">
         <v>13</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D247" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="1">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>23016</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" t="s">
         <v>248</v>
       </c>
-      <c r="C248" s="1">
-        <f t="shared" si="3"/>
+      <c r="C248">
         <v>13</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="1">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>23023</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" t="s">
         <v>249</v>
       </c>
-      <c r="C249" s="1">
-        <f t="shared" si="3"/>
+      <c r="C249">
         <v>13</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D249" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="1">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>23024</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" t="s">
         <v>250</v>
       </c>
-      <c r="C250" s="1">
-        <f t="shared" si="3"/>
+      <c r="C250">
         <v>13</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="1">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>23025</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" t="s">
         <v>251</v>
       </c>
-      <c r="C251" s="1">
-        <f t="shared" si="3"/>
+      <c r="C251">
         <v>13</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D251" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" s="1">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>23027</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" t="s">
         <v>252</v>
       </c>
-      <c r="C252" s="1">
-        <f t="shared" si="3"/>
+      <c r="C252">
         <v>13</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D252" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="1">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
         <v>23032</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" t="s">
         <v>253</v>
       </c>
-      <c r="C253" s="1">
-        <f t="shared" si="3"/>
+      <c r="C253">
         <v>13</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D253" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="1">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
         <v>23038</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" t="s">
         <v>254</v>
       </c>
-      <c r="C254" s="1">
-        <f t="shared" si="3"/>
+      <c r="C254">
         <v>13</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" s="1">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
         <v>23044</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" t="s">
         <v>255</v>
       </c>
-      <c r="C255" s="1">
-        <f t="shared" si="3"/>
+      <c r="C255">
         <v>13</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="1">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>23045</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" t="s">
         <v>256</v>
       </c>
-      <c r="C256" s="1">
-        <f t="shared" si="3"/>
+      <c r="C256">
         <v>13</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="1">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>23047</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" t="s">
         <v>257</v>
       </c>
-      <c r="C257" s="1">
-        <f t="shared" si="3"/>
+      <c r="C257">
         <v>13</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" s="1">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>23050</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" t="s">
         <v>258</v>
       </c>
-      <c r="C258" s="1">
-        <f t="shared" si="3"/>
+      <c r="C258">
         <v>13</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="1">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>23052</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" t="s">
         <v>259</v>
       </c>
-      <c r="C259" s="1">
-        <f t="shared" si="3"/>
+      <c r="C259">
         <v>13</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D259" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="1">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
         <v>23060</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" t="s">
         <v>260</v>
       </c>
-      <c r="C260" s="1">
-        <f t="shared" ref="C260:C301" si="4">IF(D260=D259,C259,C259+1)</f>
+      <c r="C260">
         <v>13</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="1">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>23064</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" t="s">
         <v>261</v>
       </c>
-      <c r="C261" s="1">
-        <f t="shared" si="4"/>
+      <c r="C261">
         <v>13</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="1">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>23077</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" t="s">
         <v>262</v>
       </c>
-      <c r="C262" s="1">
-        <f t="shared" si="4"/>
+      <c r="C262">
         <v>13</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D262" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="1">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
         <v>23081</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" t="s">
         <v>263</v>
       </c>
-      <c r="C263" s="1">
-        <f t="shared" si="4"/>
+      <c r="C263">
         <v>13</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D263" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="1">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>23086</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" t="s">
         <v>264</v>
       </c>
-      <c r="C264" s="1">
-        <f t="shared" si="4"/>
+      <c r="C264">
         <v>13</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D264" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="1">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>23088</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" t="s">
         <v>265</v>
       </c>
-      <c r="C265" s="1">
-        <f t="shared" si="4"/>
+      <c r="C265">
         <v>13</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D265" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="1">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>23094</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" t="s">
         <v>266</v>
       </c>
-      <c r="C266" s="1">
-        <f t="shared" si="4"/>
+      <c r="C266">
         <v>13</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D266" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" s="1">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>23096</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" t="s">
         <v>267</v>
       </c>
-      <c r="C267" s="1">
-        <f t="shared" si="4"/>
+      <c r="C267">
         <v>13</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="D267" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="1">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>23097</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" t="s">
         <v>268</v>
       </c>
-      <c r="C268" s="1">
-        <f t="shared" si="4"/>
+      <c r="C268">
         <v>13</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D268" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="1">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>23098</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" t="s">
         <v>269</v>
       </c>
-      <c r="C269" s="1">
-        <f t="shared" si="4"/>
+      <c r="C269">
         <v>13</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D269" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="1">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
         <v>23099</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" t="s">
         <v>270</v>
       </c>
-      <c r="C270" s="1">
-        <f t="shared" si="4"/>
+      <c r="C270">
         <v>13</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="D270" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="1">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
         <v>23100</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" t="s">
         <v>271</v>
       </c>
-      <c r="C271" s="1">
-        <f t="shared" si="4"/>
+      <c r="C271">
         <v>13</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D271" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="1">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
         <v>23101</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" t="s">
         <v>272</v>
       </c>
-      <c r="C272" s="1">
-        <f t="shared" si="4"/>
+      <c r="C272">
         <v>13</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D272" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="1">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
         <v>23102</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" t="s">
         <v>273</v>
       </c>
-      <c r="C273" s="1">
-        <f t="shared" si="4"/>
+      <c r="C273">
         <v>13</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D273" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="1">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
         <v>23103</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" t="s">
         <v>274</v>
       </c>
-      <c r="C274" s="1">
-        <f t="shared" si="4"/>
+      <c r="C274">
         <v>13</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="D274" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="1">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
         <v>23104</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" t="s">
         <v>275</v>
       </c>
-      <c r="C275" s="1">
-        <f t="shared" si="4"/>
+      <c r="C275">
         <v>13</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D275" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="1">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
         <v>23105</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" t="s">
         <v>276</v>
       </c>
-      <c r="C276" s="1">
-        <f t="shared" si="4"/>
+      <c r="C276">
         <v>13</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D276" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="1">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
         <v>42004</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" t="s">
         <v>277</v>
       </c>
-      <c r="C277" s="1">
-        <f t="shared" si="4"/>
+      <c r="C277">
         <v>13</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="D277" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="1">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
         <v>46013</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" t="s">
         <v>278</v>
       </c>
-      <c r="C278" s="1">
-        <f t="shared" si="4"/>
+      <c r="C278">
         <v>14</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="D278" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="1">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
         <v>42023</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" t="s">
         <v>279</v>
       </c>
-      <c r="C279" s="1">
-        <f t="shared" si="4"/>
+      <c r="C279">
         <v>14</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D279" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="1">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
         <v>42028</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" t="s">
         <v>280</v>
       </c>
-      <c r="C280" s="1">
-        <f t="shared" si="4"/>
+      <c r="C280">
         <v>14</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="D280" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="1">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>44045</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" t="s">
         <v>281</v>
       </c>
-      <c r="C281" s="1">
-        <f t="shared" si="4"/>
+      <c r="C281">
         <v>14</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="D281" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="1">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>46014</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" t="s">
         <v>282</v>
       </c>
-      <c r="C282" s="1">
-        <f t="shared" si="4"/>
+      <c r="C282">
         <v>14</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D282" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="1">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>46020</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" t="s">
         <v>283</v>
       </c>
-      <c r="C283" s="1">
-        <f t="shared" si="4"/>
+      <c r="C283">
         <v>14</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="D283" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="1">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>46021</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" t="s">
         <v>284</v>
       </c>
-      <c r="C284" s="1">
-        <f t="shared" si="4"/>
+      <c r="C284">
         <v>14</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D284" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="1">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>46024</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" t="s">
         <v>285</v>
       </c>
-      <c r="C285" s="1">
-        <f t="shared" si="4"/>
+      <c r="C285">
         <v>14</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="D285" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="1">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>46025</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" t="s">
         <v>286</v>
       </c>
-      <c r="C286" s="1">
-        <f t="shared" si="4"/>
+      <c r="C286">
         <v>14</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="D286" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="1">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>38008</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" t="s">
         <v>287</v>
       </c>
-      <c r="C287" s="1">
-        <f t="shared" si="4"/>
+      <c r="C287">
         <v>15</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="D287" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="1">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>32003</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" t="s">
         <v>288</v>
       </c>
-      <c r="C288" s="1">
-        <f t="shared" si="4"/>
+      <c r="C288">
         <v>15</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="D288" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="1">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
         <v>32006</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" t="s">
         <v>289</v>
       </c>
-      <c r="C289" s="1">
-        <f t="shared" si="4"/>
+      <c r="C289">
         <v>15</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D289" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="1">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
         <v>32010</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" t="s">
         <v>290</v>
       </c>
-      <c r="C290" s="1">
-        <f t="shared" si="4"/>
+      <c r="C290">
         <v>15</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D290" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="1">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
         <v>32011</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" t="s">
         <v>291</v>
       </c>
-      <c r="C291" s="1">
-        <f t="shared" si="4"/>
+      <c r="C291">
         <v>15</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="D291" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="1">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
         <v>32030</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" t="s">
         <v>292</v>
       </c>
-      <c r="C292" s="1">
-        <f t="shared" si="4"/>
+      <c r="C292">
         <v>15</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="D292" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="1">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
         <v>33011</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B293" t="s">
         <v>293</v>
       </c>
-      <c r="C293" s="1">
-        <f t="shared" si="4"/>
+      <c r="C293">
         <v>15</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="D293" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="1">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
         <v>33016</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" t="s">
         <v>294</v>
       </c>
-      <c r="C294" s="1">
-        <f t="shared" si="4"/>
+      <c r="C294">
         <v>15</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="D294" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="1">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
         <v>33021</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B295" t="s">
         <v>295</v>
       </c>
-      <c r="C295" s="1">
-        <f t="shared" si="4"/>
+      <c r="C295">
         <v>15</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D295" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="1">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
         <v>33037</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" t="s">
         <v>296</v>
       </c>
-      <c r="C296" s="1">
-        <f t="shared" si="4"/>
+      <c r="C296">
         <v>15</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="D296" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="1">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
         <v>33039</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" t="s">
         <v>297</v>
       </c>
-      <c r="C297" s="1">
-        <f t="shared" si="4"/>
+      <c r="C297">
         <v>15</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="D297" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="1">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
         <v>33040</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" t="s">
         <v>298</v>
       </c>
-      <c r="C298" s="1">
-        <f t="shared" si="4"/>
+      <c r="C298">
         <v>15</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="D298" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="1">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
         <v>33041</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" t="s">
         <v>299</v>
       </c>
-      <c r="C299" s="1">
-        <f t="shared" si="4"/>
+      <c r="C299">
         <v>15</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="D299" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="1">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
         <v>38002</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" t="s">
         <v>300</v>
       </c>
-      <c r="C300" s="1">
-        <f t="shared" si="4"/>
+      <c r="C300">
         <v>15</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="D300" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="1">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>38025</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" t="s">
         <v>301</v>
       </c>
-      <c r="C301" s="1">
-        <f t="shared" si="4"/>
+      <c r="C301">
         <v>15</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="D301" t="s">
         <v>318</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D314">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D314">
     <sortCondition ref="C2:C314"/>
     <sortCondition ref="B2:B314"/>
   </sortState>

--- a/kerntabellen/gemeente_vervoerregio.xlsx
+++ b/kerntabellen/gemeente_vervoerregio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6158D3-AEB1-411B-8552-CCB2D8E75301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE1F2F-911B-445A-8D62-EDF444D171B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="306">
   <si>
     <t>gemeente</t>
   </si>
@@ -47,9 +47,6 @@
     <t>vervoerregio</t>
   </si>
   <si>
-    <t>Aalst (Verv.)</t>
-  </si>
-  <si>
     <t>Antwerpen (Verv.)</t>
   </si>
   <si>
@@ -953,7 +950,7 @@
     <t>Niet te lokaliseren - Vlaanderen</t>
   </si>
   <si>
-    <t>Vervoerregio onbekend (Vlaanderen)</t>
+    <t>Dender (Verv.)</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F39069E-18F6-45A6-B5D3-73EEDF271F29}">
   <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="I289" sqref="I289"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="N259" sqref="N259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,13 +1319,13 @@
         <v>41002</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1336,13 +1333,13 @@
         <v>44084</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1350,13 +1347,13 @@
         <v>24001</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1364,13 +1361,13 @@
         <v>11001</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1378,13 +1375,13 @@
         <v>23105</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1392,13 +1389,13 @@
         <v>73001</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1406,13 +1403,13 @@
         <v>38002</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1420,13 +1417,13 @@
         <v>11002</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1434,13 +1431,13 @@
         <v>34002</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1448,13 +1445,13 @@
         <v>37020</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1462,13 +1459,13 @@
         <v>13001</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1476,13 +1473,13 @@
         <v>71002</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1490,13 +1487,13 @@
         <v>23002</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1504,13 +1501,13 @@
         <v>43002</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1518,13 +1515,13 @@
         <v>34003</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,13 +1529,13 @@
         <v>13002</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1546,13 +1543,13 @@
         <v>13003</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1560,13 +1557,13 @@
         <v>31003</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1574,13 +1571,13 @@
         <v>13004</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,13 +1585,13 @@
         <v>23003</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1602,13 +1599,13 @@
         <v>24007</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1616,13 +1613,13 @@
         <v>24008</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,13 +1627,13 @@
         <v>71004</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,13 +1641,13 @@
         <v>12002</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,13 +1655,13 @@
         <v>42003</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,13 +1669,13 @@
         <v>24009</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,13 +1683,13 @@
         <v>23009</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1700,13 +1697,13 @@
         <v>46030</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1714,13 +1711,13 @@
         <v>24011</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,13 +1725,13 @@
         <v>73110</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,13 +1739,13 @@
         <v>31004</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,13 +1753,13 @@
         <v>72003</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,13 +1767,13 @@
         <v>11004</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,13 +1781,13 @@
         <v>12005</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,13 +1795,13 @@
         <v>11005</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,13 +1809,13 @@
         <v>24014</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1826,13 +1823,13 @@
         <v>12007</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1840,13 +1837,13 @@
         <v>24016</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1854,13 +1851,13 @@
         <v>45059</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1868,13 +1865,13 @@
         <v>11008</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,13 +1879,13 @@
         <v>11009</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,13 +1893,13 @@
         <v>35002</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,13 +1907,13 @@
         <v>72004</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1924,13 +1921,13 @@
         <v>31005</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1938,13 +1935,13 @@
         <v>42004</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1952,13 +1949,13 @@
         <v>31006</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1966,13 +1963,13 @@
         <v>35029</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1980,13 +1977,13 @@
         <v>38008</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1994,13 +1991,13 @@
         <v>34009</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2008,13 +2005,13 @@
         <v>44083</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2022,13 +2019,13 @@
         <v>41011</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2036,13 +2033,13 @@
         <v>42006</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2050,13 +2047,13 @@
         <v>37002</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2064,13 +2061,13 @@
         <v>13006</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2078,13 +2075,13 @@
         <v>44013</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2092,13 +2089,13 @@
         <v>71011</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2106,13 +2103,13 @@
         <v>24020</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2120,13 +2117,13 @@
         <v>32003</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2134,13 +2131,13 @@
         <v>23016</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2148,13 +2145,13 @@
         <v>72041</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2162,13 +2159,13 @@
         <v>23098</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2176,13 +2173,13 @@
         <v>12009</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2190,13 +2187,13 @@
         <v>11013</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2204,13 +2201,13 @@
         <v>43005</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,13 +2215,13 @@
         <v>41082</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2232,13 +2229,13 @@
         <v>11016</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2246,13 +2243,13 @@
         <v>44019</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2260,13 +2257,13 @@
         <v>44020</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2274,13 +2271,13 @@
         <v>13008</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,13 +2285,13 @@
         <v>24028</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2302,13 +2299,13 @@
         <v>71016</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2316,13 +2313,13 @@
         <v>44021</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2330,13 +2327,13 @@
         <v>41018</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74">
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2344,13 +2341,13 @@
         <v>71017</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2358,13 +2355,13 @@
         <v>35005</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2372,13 +2369,13 @@
         <v>24137</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2386,13 +2383,13 @@
         <v>23025</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2400,13 +2397,13 @@
         <v>13010</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2414,13 +2411,13 @@
         <v>24033</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2428,13 +2425,13 @@
         <v>41024</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2442,13 +2439,13 @@
         <v>71020</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2456,13 +2453,13 @@
         <v>23027</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2470,13 +2467,13 @@
         <v>42008</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2484,13 +2481,13 @@
         <v>72037</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2498,13 +2495,13 @@
         <v>34013</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86">
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2512,13 +2509,13 @@
         <v>71072</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87">
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2526,13 +2523,13 @@
         <v>72038</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2540,13 +2537,13 @@
         <v>73022</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2554,13 +2551,13 @@
         <v>12014</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2568,13 +2565,13 @@
         <v>11018</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2582,13 +2579,13 @@
         <v>24038</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2596,13 +2593,13 @@
         <v>13011</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93">
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,13 +2607,13 @@
         <v>13012</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C94">
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2624,13 +2621,13 @@
         <v>71024</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C95">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,13 +2635,13 @@
         <v>13013</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,13 +2649,13 @@
         <v>73028</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C97">
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2666,13 +2663,13 @@
         <v>41027</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C98">
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2680,13 +2677,13 @@
         <v>71070</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C99">
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2694,13 +2691,13 @@
         <v>33039</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C100">
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2708,13 +2705,13 @@
         <v>24041</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C101">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2722,13 +2719,13 @@
         <v>23033</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C102">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,13 +2733,13 @@
         <v>24043</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C103">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2750,13 +2747,13 @@
         <v>36006</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C104">
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2764,13 +2761,13 @@
         <v>13014</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C105">
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2778,13 +2775,13 @@
         <v>45062</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C106">
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2792,13 +2789,13 @@
         <v>72039</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C107">
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2806,13 +2803,13 @@
         <v>32006</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C108">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2820,13 +2817,13 @@
         <v>11021</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2834,13 +2831,13 @@
         <v>24045</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C110">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2848,13 +2845,13 @@
         <v>13016</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C111">
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2862,13 +2859,13 @@
         <v>35006</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C112">
         <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2876,13 +2873,13 @@
         <v>33011</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C113">
         <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2890,13 +2887,13 @@
         <v>36007</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2904,13 +2901,13 @@
         <v>36008</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115">
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2918,13 +2915,13 @@
         <v>31012</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2932,13 +2929,13 @@
         <v>11022</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2946,13 +2943,13 @@
         <v>23038</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118">
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2960,13 +2957,13 @@
         <v>23039</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119">
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2974,13 +2971,13 @@
         <v>11023</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2988,13 +2985,13 @@
         <v>43007</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C121">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3002,13 +2999,13 @@
         <v>13017</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C122">
         <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3016,13 +3013,13 @@
         <v>24048</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3030,13 +3027,13 @@
         <v>72018</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124">
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3044,13 +3041,13 @@
         <v>45060</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C125">
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3058,13 +3055,13 @@
         <v>31043</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,13 +3069,13 @@
         <v>32010</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127">
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,13 +3083,13 @@
         <v>38014</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C128">
         <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3100,13 +3097,13 @@
         <v>11024</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3114,13 +3111,13 @@
         <v>32011</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C130">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3128,13 +3125,13 @@
         <v>24054</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C131">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3142,13 +3139,13 @@
         <v>24055</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C132">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3156,13 +3153,13 @@
         <v>34022</v>
       </c>
       <c r="B133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C133">
         <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3170,13 +3167,13 @@
         <v>23099</v>
       </c>
       <c r="B134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C134">
         <v>13</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,13 +3181,13 @@
         <v>45068</v>
       </c>
       <c r="B135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C135">
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3198,13 +3195,13 @@
         <v>34023</v>
       </c>
       <c r="B136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C136">
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3212,13 +3209,13 @@
         <v>13053</v>
       </c>
       <c r="B137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C137">
         <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3226,13 +3223,13 @@
         <v>42010</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C138">
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3240,13 +3237,13 @@
         <v>73042</v>
       </c>
       <c r="B139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C139">
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3254,13 +3251,13 @@
         <v>24059</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C140">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3268,13 +3265,13 @@
         <v>33040</v>
       </c>
       <c r="B141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C141">
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3282,13 +3279,13 @@
         <v>42011</v>
       </c>
       <c r="B142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,13 +3293,13 @@
         <v>41034</v>
       </c>
       <c r="B143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,13 +3307,13 @@
         <v>36010</v>
       </c>
       <c r="B144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C144">
         <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3324,13 +3321,13 @@
         <v>34025</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C145">
         <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3338,13 +3335,13 @@
         <v>23104</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C146">
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,13 +3349,13 @@
         <v>71034</v>
       </c>
       <c r="B147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C147">
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3366,13 +3363,13 @@
         <v>24062</v>
       </c>
       <c r="B148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C148">
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3380,13 +3377,13 @@
         <v>36011</v>
       </c>
       <c r="B149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C149">
         <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3394,13 +3391,13 @@
         <v>23044</v>
       </c>
       <c r="B150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C150">
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3408,13 +3405,13 @@
         <v>12021</v>
       </c>
       <c r="B151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3422,13 +3419,13 @@
         <v>45063</v>
       </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C152">
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3436,13 +3433,13 @@
         <v>44085</v>
       </c>
       <c r="B153" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C153">
         <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3450,13 +3447,13 @@
         <v>13019</v>
       </c>
       <c r="B154" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C154">
         <v>5</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3464,13 +3461,13 @@
         <v>23100</v>
       </c>
       <c r="B155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C155">
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3478,13 +3475,13 @@
         <v>11025</v>
       </c>
       <c r="B156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3492,13 +3489,13 @@
         <v>24133</v>
       </c>
       <c r="B157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C157">
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3506,13 +3503,13 @@
         <v>32030</v>
       </c>
       <c r="B158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C158">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3520,13 +3517,13 @@
         <v>44087</v>
       </c>
       <c r="B159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C159">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3534,13 +3531,13 @@
         <v>46029</v>
       </c>
       <c r="B160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C160">
         <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3548,13 +3545,13 @@
         <v>72020</v>
       </c>
       <c r="B161" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C161">
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3562,13 +3559,13 @@
         <v>23045</v>
       </c>
       <c r="B162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C162">
         <v>13</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3576,13 +3573,13 @@
         <v>24066</v>
       </c>
       <c r="B163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C163">
         <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3590,13 +3587,13 @@
         <v>71037</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C164">
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3604,13 +3601,13 @@
         <v>45064</v>
       </c>
       <c r="B165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C165">
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3618,13 +3615,13 @@
         <v>72021</v>
       </c>
       <c r="B166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C166">
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,13 +3629,13 @@
         <v>73107</v>
       </c>
       <c r="B167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C167">
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,13 +3643,13 @@
         <v>23047</v>
       </c>
       <c r="B168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C168">
         <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3660,13 +3657,13 @@
         <v>43010</v>
       </c>
       <c r="B169" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C169">
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3674,13 +3671,13 @@
         <v>11057</v>
       </c>
       <c r="B170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3688,13 +3685,13 @@
         <v>12025</v>
       </c>
       <c r="B171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171">
         <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3702,13 +3699,13 @@
         <v>13021</v>
       </c>
       <c r="B172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C172">
         <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3716,13 +3713,13 @@
         <v>23050</v>
       </c>
       <c r="B173" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C173">
         <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3730,13 +3727,13 @@
         <v>34027</v>
       </c>
       <c r="B174" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C174">
         <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3744,13 +3741,13 @@
         <v>23052</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C175">
         <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3758,13 +3755,13 @@
         <v>44088</v>
       </c>
       <c r="B176" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C176">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3772,13 +3769,13 @@
         <v>13023</v>
       </c>
       <c r="B177" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C177">
         <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3786,13 +3783,13 @@
         <v>33016</v>
       </c>
       <c r="B178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C178">
         <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3800,13 +3797,13 @@
         <v>35011</v>
       </c>
       <c r="B179" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C179">
         <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3814,13 +3811,13 @@
         <v>13025</v>
       </c>
       <c r="B180" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C180">
         <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3828,13 +3825,13 @@
         <v>36012</v>
       </c>
       <c r="B181" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C181">
         <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3842,13 +3839,13 @@
         <v>11029</v>
       </c>
       <c r="B182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3856,13 +3853,13 @@
         <v>44086</v>
       </c>
       <c r="B183" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C183">
         <v>4</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3870,13 +3867,13 @@
         <v>11030</v>
       </c>
       <c r="B184" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3884,13 +3881,13 @@
         <v>71045</v>
       </c>
       <c r="B185" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C185">
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3898,13 +3895,13 @@
         <v>38016</v>
       </c>
       <c r="B186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C186">
         <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3912,13 +3909,13 @@
         <v>12026</v>
       </c>
       <c r="B187" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C187">
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,13 +3923,13 @@
         <v>41048</v>
       </c>
       <c r="B188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3940,13 +3937,13 @@
         <v>13029</v>
       </c>
       <c r="B189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C189">
         <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3954,13 +3951,13 @@
         <v>35013</v>
       </c>
       <c r="B190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C190">
         <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3968,13 +3965,13 @@
         <v>44052</v>
       </c>
       <c r="B191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C191">
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3982,13 +3979,13 @@
         <v>31022</v>
       </c>
       <c r="B192" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C192">
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3996,13 +3993,13 @@
         <v>37010</v>
       </c>
       <c r="B193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C193">
         <v>11</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4010,13 +4007,13 @@
         <v>23060</v>
       </c>
       <c r="B194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C194">
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4024,13 +4021,13 @@
         <v>24086</v>
       </c>
       <c r="B195" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C195">
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4038,13 +4035,13 @@
         <v>13031</v>
       </c>
       <c r="B196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C196">
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4052,13 +4049,13 @@
         <v>45035</v>
       </c>
       <c r="B197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C197">
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4066,13 +4063,13 @@
         <v>35014</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C198">
         <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4080,13 +4077,13 @@
         <v>72042</v>
       </c>
       <c r="B199" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C199">
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4094,13 +4091,13 @@
         <v>23062</v>
       </c>
       <c r="B200" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C200">
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4108,13 +4105,13 @@
         <v>23106</v>
       </c>
       <c r="B201" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C201">
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4122,13 +4119,13 @@
         <v>72030</v>
       </c>
       <c r="B202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C202">
         <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4136,13 +4133,13 @@
         <v>72043</v>
       </c>
       <c r="B203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C203">
         <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4150,13 +4147,13 @@
         <v>23064</v>
       </c>
       <c r="B204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C204">
         <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4164,13 +4161,13 @@
         <v>37011</v>
       </c>
       <c r="B205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C205">
         <v>11</v>
       </c>
       <c r="D205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4178,13 +4175,13 @@
         <v>33021</v>
       </c>
       <c r="B206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C206">
         <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,13 +4189,13 @@
         <v>12029</v>
       </c>
       <c r="B207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C207">
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4206,13 +4203,13 @@
         <v>12041</v>
       </c>
       <c r="B208" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C208">
         <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4220,13 +4217,13 @@
         <v>11035</v>
       </c>
       <c r="B209" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4234,13 +4231,13 @@
         <v>13035</v>
       </c>
       <c r="B210" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C210">
         <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4248,13 +4245,13 @@
         <v>13036</v>
       </c>
       <c r="B211" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C211">
         <v>5</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4262,13 +4259,13 @@
         <v>73066</v>
       </c>
       <c r="B212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C212">
         <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4276,13 +4273,13 @@
         <v>13037</v>
       </c>
       <c r="B213" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C213">
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4290,13 +4287,13 @@
         <v>36015</v>
       </c>
       <c r="B214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C214">
         <v>11</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4304,13 +4301,13 @@
         <v>45041</v>
       </c>
       <c r="B215" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C215">
         <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4318,13 +4315,13 @@
         <v>23097</v>
       </c>
       <c r="B216" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C216">
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4332,13 +4329,13 @@
         <v>24094</v>
       </c>
       <c r="B217" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C217">
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4346,13 +4343,13 @@
         <v>11037</v>
       </c>
       <c r="B218" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,13 +4357,13 @@
         <v>11038</v>
       </c>
       <c r="B219" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4374,13 +4371,13 @@
         <v>24134</v>
       </c>
       <c r="B220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C220">
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4388,13 +4385,13 @@
         <v>11039</v>
       </c>
       <c r="B221" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4402,13 +4399,13 @@
         <v>11040</v>
       </c>
       <c r="B222" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,13 +4413,13 @@
         <v>23101</v>
       </c>
       <c r="B223" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C223">
         <v>13</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4430,13 +4427,13 @@
         <v>46020</v>
       </c>
       <c r="B224" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C224">
         <v>14</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4444,13 +4441,13 @@
         <v>12035</v>
       </c>
       <c r="B225" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C225">
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4458,13 +4455,13 @@
         <v>43014</v>
       </c>
       <c r="B226" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C226">
         <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4472,13 +4469,13 @@
         <v>41063</v>
       </c>
       <c r="B227" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C227">
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4486,13 +4483,13 @@
         <v>44064</v>
       </c>
       <c r="B228" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C228">
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4500,13 +4497,13 @@
         <v>46021</v>
       </c>
       <c r="B229" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C229">
         <v>14</v>
       </c>
       <c r="D229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4514,13 +4511,13 @@
         <v>23077</v>
       </c>
       <c r="B230" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C230">
         <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4528,13 +4525,13 @@
         <v>71053</v>
       </c>
       <c r="B231" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C231">
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4542,13 +4539,13 @@
         <v>34043</v>
       </c>
       <c r="B232" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C232">
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4556,13 +4553,13 @@
         <v>11044</v>
       </c>
       <c r="B233" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4570,13 +4567,13 @@
         <v>36019</v>
       </c>
       <c r="B234" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C234">
         <v>11</v>
       </c>
       <c r="D234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4584,13 +4581,13 @@
         <v>23081</v>
       </c>
       <c r="B235" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C235">
         <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,13 +4595,13 @@
         <v>46024</v>
       </c>
       <c r="B236" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C236">
         <v>14</v>
       </c>
       <c r="D236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4612,13 +4609,13 @@
         <v>46025</v>
       </c>
       <c r="B237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C237">
         <v>14</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4626,13 +4623,13 @@
         <v>23086</v>
       </c>
       <c r="B238" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C238">
         <v>13</v>
       </c>
       <c r="D238" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,13 +4637,13 @@
         <v>24104</v>
       </c>
       <c r="B239" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C239">
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,13 +4651,13 @@
         <v>71071</v>
       </c>
       <c r="B240" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C240">
         <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4668,13 +4665,13 @@
         <v>37022</v>
       </c>
       <c r="B241" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C241">
         <v>11</v>
       </c>
       <c r="D241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4682,13 +4679,13 @@
         <v>24135</v>
       </c>
       <c r="B242" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C242">
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4696,13 +4693,13 @@
         <v>24107</v>
       </c>
       <c r="B243" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C243">
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4710,13 +4707,13 @@
         <v>73111</v>
       </c>
       <c r="B244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C244">
         <v>8</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4724,13 +4721,13 @@
         <v>31033</v>
       </c>
       <c r="B245" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C245">
         <v>11</v>
       </c>
       <c r="D245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4738,13 +4735,13 @@
         <v>24109</v>
       </c>
       <c r="B246" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C246">
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,13 +4749,13 @@
         <v>13040</v>
       </c>
       <c r="B247" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C247">
         <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4766,13 +4763,13 @@
         <v>38025</v>
       </c>
       <c r="B248" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C248">
         <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4780,13 +4777,13 @@
         <v>23088</v>
       </c>
       <c r="B249" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C249">
         <v>13</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4794,13 +4791,13 @@
         <v>33041</v>
       </c>
       <c r="B250" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C250">
         <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4808,13 +4805,13 @@
         <v>73109</v>
       </c>
       <c r="B251" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C251">
         <v>8</v>
       </c>
       <c r="D251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4822,13 +4819,13 @@
         <v>13044</v>
       </c>
       <c r="B252" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C252">
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4836,13 +4833,13 @@
         <v>13046</v>
       </c>
       <c r="B253" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C253">
         <v>5</v>
       </c>
       <c r="D253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4850,13 +4847,13 @@
         <v>42023</v>
       </c>
       <c r="B254" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C254">
         <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,13 +4861,13 @@
         <v>34040</v>
       </c>
       <c r="B255" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C255">
         <v>6</v>
       </c>
       <c r="D255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,13 +4875,13 @@
         <v>73098</v>
       </c>
       <c r="B256" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C256">
         <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4892,13 +4889,13 @@
         <v>23102</v>
       </c>
       <c r="B257" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C257">
         <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4906,13 +4903,13 @@
         <v>33029</v>
       </c>
       <c r="B258" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C258">
         <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4920,13 +4917,13 @@
         <v>13049</v>
       </c>
       <c r="B259" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C259">
         <v>5</v>
       </c>
       <c r="D259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4934,13 +4931,13 @@
         <v>42025</v>
       </c>
       <c r="B260" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C260">
         <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -4948,13 +4945,13 @@
         <v>34041</v>
       </c>
       <c r="B261" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C261">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -4962,13 +4959,13 @@
         <v>23103</v>
       </c>
       <c r="B262" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C262">
         <v>13</v>
       </c>
       <c r="D262" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,13 +4973,13 @@
         <v>42026</v>
       </c>
       <c r="B263" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -4990,13 +4987,13 @@
         <v>37017</v>
       </c>
       <c r="B264" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C264">
         <v>11</v>
       </c>
       <c r="D264" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5004,13 +5001,13 @@
         <v>11050</v>
       </c>
       <c r="B265" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C265">
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5018,13 +5015,13 @@
         <v>12040</v>
       </c>
       <c r="B266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C266">
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5032,13 +5029,13 @@
         <v>37021</v>
       </c>
       <c r="B267" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C267">
         <v>11</v>
       </c>
       <c r="D267" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5046,13 +5043,13 @@
         <v>11052</v>
       </c>
       <c r="B268" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C268">
         <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5060,13 +5057,13 @@
         <v>45061</v>
       </c>
       <c r="B269" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C269">
         <v>12</v>
       </c>
       <c r="D269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5074,13 +5071,13 @@
         <v>11053</v>
       </c>
       <c r="B270" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C270">
         <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5088,13 +5085,13 @@
         <v>11054</v>
       </c>
       <c r="B271" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C271">
         <v>2</v>
       </c>
       <c r="D271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5102,13 +5099,13 @@
         <v>23094</v>
       </c>
       <c r="B272" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C272">
         <v>13</v>
       </c>
       <c r="D272" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5116,13 +5113,13 @@
         <v>31040</v>
       </c>
       <c r="B273" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C273">
         <v>3</v>
       </c>
       <c r="D273" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5130,13 +5127,13 @@
         <v>42028</v>
       </c>
       <c r="B274" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C274">
         <v>14</v>
       </c>
       <c r="D274" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5144,13 +5141,13 @@
         <v>43018</v>
       </c>
       <c r="B275" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C275">
         <v>4</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5158,13 +5155,13 @@
         <v>23096</v>
       </c>
       <c r="B276" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C276">
         <v>13</v>
       </c>
       <c r="D276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5172,13 +5169,13 @@
         <v>11055</v>
       </c>
       <c r="B277" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C277">
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5186,13 +5183,13 @@
         <v>71066</v>
       </c>
       <c r="B278" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C278">
         <v>8</v>
       </c>
       <c r="D278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,13 +5197,13 @@
         <v>33037</v>
       </c>
       <c r="B279" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C279">
         <v>15</v>
       </c>
       <c r="D279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5214,13 +5211,13 @@
         <v>41081</v>
       </c>
       <c r="B280" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C280">
         <v>12</v>
       </c>
       <c r="D280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5228,13 +5225,13 @@
         <v>24130</v>
       </c>
       <c r="B281" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C281">
         <v>7</v>
       </c>
       <c r="D281" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5242,13 +5239,13 @@
         <v>31042</v>
       </c>
       <c r="B282" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C282">
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5256,13 +5253,13 @@
         <v>44081</v>
       </c>
       <c r="B283" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C283">
         <v>4</v>
       </c>
       <c r="D283" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5270,13 +5267,13 @@
         <v>71067</v>
       </c>
       <c r="B284" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C284">
         <v>8</v>
       </c>
       <c r="D284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5284,13 +5281,13 @@
         <v>45065</v>
       </c>
       <c r="B285" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C285">
         <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5298,13 +5295,13 @@
         <v>34042</v>
       </c>
       <c r="B286" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C286">
         <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,13 +5309,13 @@
         <v>99999</v>
       </c>
       <c r="B287" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C287">
         <v>99</v>
       </c>
       <c r="D287" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5326,13 +5323,13 @@
         <v>99991</v>
       </c>
       <c r="B288" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C288">
         <v>91</v>
       </c>
       <c r="D288" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
